--- a/Banco Central/5/9/Índice diario de incertidumbre económica 2021 - Diaria.xlsx
+++ b/Banco Central/5/9/Índice diario de incertidumbre económica 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
   <si>
     <t>Serie</t>
   </si>
@@ -644,6 +644,27 @@
   </si>
   <si>
     <t>27-07-2021</t>
+  </si>
+  <si>
+    <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>31-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B209"/>
+  <dimension ref="A1:B216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2116,7 +2137,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>310.5907</v>
+        <v>310.5908</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2124,7 +2145,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>265.2257</v>
+        <v>265.2577</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2620,7 +2641,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>239.2545</v>
+        <v>239.4646</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2677,6 +2698,62 @@
       </c>
       <c r="B209">
         <v>222.9477</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>226.5099</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <v>223.5938</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <v>222.6322</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213">
+        <v>215.0819</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <v>209.8693</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <v>210.0564</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>195.8291</v>
       </c>
     </row>
   </sheetData>
